--- a/medias.xlsx
+++ b/medias.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Z004N5ZE\Documents\2023.2\instrumentação\pc2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E183E86-8F8C-4D70-8A8E-DB1E21767BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6AD01B5-92B1-4D30-AF35-A110A86F2641}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5DFBBEF3-AFAF-4480-94CD-C07EE2D43055}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{5DFBBEF3-AFAF-4480-94CD-C07EE2D43055}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Médias calibração" sheetId="1" r:id="rId1"/>
+    <sheet name="medidas coletadas no eixo x " sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="234">
   <si>
     <t>Iniciando medicao do eixo +X</t>
   </si>
@@ -156,6 +157,588 @@
   </si>
   <si>
     <t>A-1g,Z</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.61</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.55</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.75</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.53</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.68</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.71</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.87</t>
+  </si>
+  <si>
+    <t>posicione o sensor em 0 graus e aguarde 5 segundos...</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.58</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.49</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.83</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.90</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.65</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.84</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.39</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.35</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.18</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.63</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.88</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.43</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.47</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.56</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.57</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.76</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.92</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.48</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.62</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.31</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.46</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.54</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.66</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.67</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.80</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.45</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.42</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.40</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.37</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.38</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.99</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.82</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.52</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.73</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.50</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.70</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.64</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.85</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.74</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.33</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.26</t>
+  </si>
+  <si>
+    <t>Ângulo: 0.81</t>
+  </si>
+  <si>
+    <t>Posicione o sensor em 90 graus e aguarde 5 segundos...</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.65</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.58</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.85</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.06</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.14</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.36</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.90</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.81</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.07</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.00</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.80</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.56</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.32</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.03</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.57</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.68</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.37</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.23</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.10</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.43</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.66</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.71</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.92</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.62</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.11</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.72</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.83</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.35</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.20</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.35</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.86</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.98</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.60</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.78</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.39</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.30</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.33</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.49</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.73</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.88</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.91</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.61</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.26</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.16</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.38</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.07</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.39</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.42</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.18</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.41</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.15</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.63</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.47</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.28</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.52</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.76</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.82</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.61</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.70</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.13</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.29</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.12</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.75</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.96</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.19</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.84</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.40</t>
+  </si>
+  <si>
+    <t>Ângulo: 87.77</t>
+  </si>
+  <si>
+    <t>Ângulo: 88.50</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.84</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.51</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.81</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.66</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.79</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.88</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.85</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.54</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.40</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.04</t>
+  </si>
+  <si>
+    <t>Posicione o sensor em 45 graus e aguarde 5 segundos...</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.86</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.80</t>
+  </si>
+  <si>
+    <t>Ângulo: 44.03</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.30</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.18</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.85</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.41</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.00</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.36</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.27</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.29</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.90</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.06</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.97</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.76</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.77</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.44</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.45</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.02</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.11</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.75</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.57</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.91</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.09</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.47</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.28</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.21</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.03</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.82</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.12</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.14</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.10</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.13</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.58</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.68</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.50</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.20</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.52</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.25</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.69</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.05</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.63</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.23</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.60</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.49</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.79</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.66</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.67</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.87</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.51</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.37</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.39</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.24</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.55</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.32</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.38</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.45</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.65</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.34</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.19</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.26</t>
+  </si>
+  <si>
+    <t>Ângulo: 42.95</t>
+  </si>
+  <si>
+    <t>Ângulo: 43.73</t>
   </si>
 </sst>
 </file>
@@ -520,8 +1103,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88042CE2-DAE0-4576-B542-ACCA383B6709}">
   <dimension ref="A1:R117"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2748,4 +3331,1242 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BD4D3E0-8E85-4F05-9C86-8128358F8E3B}">
+  <dimension ref="A1:D102"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C101" sqref="C2:C101"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="46.109375" customWidth="1"/>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="4" width="48.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D2" s="1"/>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D3" s="1"/>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="1"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="1"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="1"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="1"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="1"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D26" s="1"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D28" s="1"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D29" s="1"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="D30" s="1"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="1"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D35" s="1"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="1"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D37" s="1"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D38" s="1"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="1"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="1"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="1"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="1"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="1"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="1"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="1"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D46" s="1"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D47" s="1"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="D48" s="1"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D49" s="1"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="1"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="1"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="1"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="D54" s="1"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D55" s="1"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" s="1"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D57" s="1"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D58" s="1"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D59" s="1"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D60" s="1"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D61" s="1"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D62" s="1"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D63" s="1"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D64" s="1"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D65" s="1"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D66" s="1"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D67" s="1"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D68" s="1"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D69" s="1"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="D70" s="1"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D71" s="1"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="1"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="D73" s="1"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="D74" s="1"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="D75" s="1"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="1"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="1"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D78" s="1"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="D79" s="1"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="D80" s="1"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="1"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D82" s="1"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D83" s="1"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D84" s="1"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D85" s="1"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D86" s="1"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D87" s="1"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D88" s="1"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="D89" s="1"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D90" s="1"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D91" s="1"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D92" s="1"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D93" s="1"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D94" s="1"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D95" s="1"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D96" s="1"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D97" s="1"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D98" s="1"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D99" s="1"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D100" s="1"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D101" s="1"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="1"/>
+      <c r="C102" s="1"/>
+      <c r="D102" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>